--- a/ChisMethods/ChisMethods/plots/krank-nikolson_asIs.xlsx
+++ b/ChisMethods/ChisMethods/plots/krank-nikolson_asIs.xlsx
@@ -1772,12 +1772,12 @@
           </c:val>
         </c:ser>
         <c:bandFmts/>
-        <c:axId val="193299968"/>
-        <c:axId val="193301504"/>
-        <c:axId val="192574336"/>
+        <c:axId val="41864192"/>
+        <c:axId val="41866752"/>
+        <c:axId val="41633536"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="193299968"/>
+        <c:axId val="41864192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,7 +1787,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193301504"/>
+        <c:crossAx val="41866752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1795,7 +1795,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193301504"/>
+        <c:axId val="41866752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,12 +1806,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193299968"/>
+        <c:crossAx val="41864192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="192574336"/>
+        <c:axId val="41633536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,7 +1820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193301504"/>
+        <c:crossAx val="41866752"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1855,20 +1855,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>390524</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2176,7 +2176,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ChisMethods/ChisMethods/plots/krank-nikolson_asIs.xlsx
+++ b/ChisMethods/ChisMethods/plots/krank-nikolson_asIs.xlsx
@@ -13,6 +13,14 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1772,12 +1780,12 @@
           </c:val>
         </c:ser>
         <c:bandFmts/>
-        <c:axId val="41864192"/>
-        <c:axId val="41866752"/>
-        <c:axId val="41633536"/>
+        <c:axId val="175290240"/>
+        <c:axId val="175291776"/>
+        <c:axId val="174232448"/>
       </c:surface3DChart>
       <c:catAx>
-        <c:axId val="41864192"/>
+        <c:axId val="175290240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,7 +1795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41866752"/>
+        <c:crossAx val="175291776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1795,7 +1803,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41866752"/>
+        <c:axId val="175291776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,12 +1814,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41864192"/>
+        <c:crossAx val="175290240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="41633536"/>
+        <c:axId val="174232448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,7 +1828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41866752"/>
+        <c:crossAx val="175291776"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -2173,10 +2181,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,7 +2554,7 @@
         <v>2.5840000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3.75</v>
       </c>
@@ -2569,7 +2577,7 @@
         <v>2.7122099999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -2592,7 +2600,7 @@
         <v>2.8332099999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4.25</v>
       </c>
@@ -2615,7 +2623,7 @@
         <v>2.9477199999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4.5</v>
       </c>
@@ -2638,7 +2646,7 @@
         <v>3.0563600000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4.75</v>
       </c>
@@ -2661,7 +2669,7 @@
         <v>3.1596600000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -2684,7 +2692,7 @@
         <v>3.2581000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5.25</v>
       </c>
@@ -2707,7 +2715,7 @@
         <v>3.35209</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5.5</v>
       </c>
@@ -2730,7 +2738,7 @@
         <v>3.4420199999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5.75</v>
       </c>
@@ -2752,8 +2760,11 @@
       <c r="G25">
         <v>3.5282</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>6</v>
       </c>
@@ -2776,7 +2787,7 @@
         <v>3.6109200000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6.25</v>
       </c>
@@ -2799,7 +2810,7 @@
         <v>3.6904400000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6.5</v>
       </c>
@@ -2822,7 +2833,7 @@
         <v>3.7669999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6.75</v>
       </c>
@@ -2845,7 +2856,7 @@
         <v>3.8408000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7</v>
       </c>
@@ -2868,7 +2879,7 @@
         <v>3.9120200000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>7.25</v>
       </c>
@@ -2891,7 +2902,7 @@
         <v>3.9808500000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7.5</v>
       </c>
